--- a/contaminantes.xlsx
+++ b/contaminantes.xlsx
@@ -441,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>20.64861111111111</v>
+        <v>20.65</v>
       </c>
       <c r="E2" s="1">
         <v>6</v>
@@ -461,7 +461,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>18.39798850574713</v>
+        <v>18.4</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -481,7 +481,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>17.52956989247312</v>
+        <v>17.53</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>14.08908045977011</v>
+        <v>14.09</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>19.99583333333333</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>17.53591954022988</v>
+        <v>17.54</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>19.44220430107527</v>
+        <v>19.44</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>26.99059139784946</v>
+        <v>26.99</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>20.16805555555555</v>
+        <v>20.17</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>18.97043010752688</v>
+        <v>18.97</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>21.14861111111111</v>
+        <v>21.15</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
@@ -661,7 +661,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>24.00277777777778</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1">
         <v>8</v>

--- a/contaminantes.xlsx
+++ b/contaminantes.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>INTERVALO</t>
-  </si>
-  <si>
-    <t>DICIEMBRE_ENERO</t>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intervalo</t>
+  </si>
+  <si>
+    <t>Diciembre Vs Enero</t>
   </si>
   <si>
     <t>2020</t>

--- a/contaminantes.xlsx
+++ b/contaminantes.xlsx
@@ -40,7 +40,7 @@
     <t>Contaminantes</t>
   </si>
   <si>
-    <t>+33 %</t>
+    <t>-28 %</t>
   </si>
 </sst>
 </file>
@@ -441,10 +441,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>20.65</v>
+        <v>21.75</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -461,10 +461,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>18.4</v>
+        <v>20.6</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
@@ -481,10 +481,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>17.53</v>
+        <v>13.68</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>14.09</v>
+        <v>11.6</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>18.57</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -541,10 +541,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>17.54</v>
+        <v>18.03</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1">
-        <v>19.44</v>
+        <v>20.6</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>26.99</v>
+        <v>27.74</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="1">
-        <v>20.17</v>
+        <v>19.37</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>18.97</v>
+        <v>16.52</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -641,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>21.15</v>
+        <v>17.89</v>
       </c>
       <c r="E12" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>8</v>
@@ -661,10 +661,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="1">
-        <v>24</v>
+        <v>18.88</v>
       </c>
       <c r="E13" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>8</v>
